--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,526 +458,374 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1188826555743651</v>
+        <v>0.2188117864987037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5844155197780656</v>
+        <v>0.1352321888548109</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1110175367721671</v>
+        <v>0.08046531078699798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6690735310372699</v>
+        <v>0.1189717461682943</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1047705817898381</v>
+        <v>0.0530912342933955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1703981389635239</v>
+        <v>0.0809041516553913</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1032349998545662</v>
+        <v>0.03027524775902375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7942963550385289</v>
+        <v>0.6175548218156566</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1008158189450614</v>
+        <v>0.02064819322111291</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6536008718632913</v>
+        <v>0.1456001090997322</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0982732998356293</v>
+        <v>0.009838433963412017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1726238116305007</v>
+        <v>0.2867822093233157</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0712155673022288</v>
+        <v>0.009472030069949344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3020868560945447</v>
+        <v>0.49002667793574</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06318569835556445</v>
+        <v>0.0004401155861506775</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05760830491167007</v>
+        <v>0.9860742571644747</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03989373065579743</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08839460187649123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02678016534085227</v>
+        <v>-0.003264758415660929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4774567226871749</v>
+        <v>0.7534276524971931</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02181926341541493</v>
+        <v>-0.004062470856200486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8869059877364549</v>
+        <v>0.8975880051331304</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02088121461162158</v>
+        <v>-0.008406002939756217</v>
       </c>
       <c r="C13" t="n">
-        <v>0.686635762183295</v>
+        <v>0.474327611154558</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006405671969035923</v>
+        <v>-0.01100596381524505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7546830845391284</v>
+        <v>0.7083322591729044</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002678650717224951</v>
+        <v>-0.01187586102027419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9987406898655991</v>
+        <v>0.2056960112961483</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>-0.01443479076872049</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05460774136290469</v>
+      </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.00242349233657306</v>
+        <v>-0.02205408252399896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9051301373549233</v>
+        <v>0.05458482412515211</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005341519552579221</v>
+        <v>-0.02773813611947646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7887673383191379</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>0.03025250191085301</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01278402956603749</v>
+        <v>-0.03682492778461942</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6997211622275705</v>
+        <v>0.2956655976723142</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01288888658496548</v>
+        <v>-0.04001832670895539</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8586068455874171</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.006336450673799967</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01328257873815163</v>
+        <v>-0.04674549931906757</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6632299404016802</v>
+        <v>0.2701580475610311</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01649733250376235</v>
+        <v>-0.0516294927286546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4672178527999803</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.004346026777116089</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01785667242386559</v>
+        <v>-0.06146792669206638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8124218378759175</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>6.580409301887379e-11</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0242503115752467</v>
+        <v>-0.06212125283955278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7526553270844878</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>3.964703392760829e-06</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.03299230022871517</v>
+        <v>-0.08409317726378407</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5486718046989445</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.03244777456618556</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.04036281907762822</v>
+        <v>-0.2127857595360071</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01169739226756195</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.04186187688560945</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1506721376077444</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.04463683776472606</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2362560788559872</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.04914043135053775</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.41580077860261</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Kurtosis of Rating</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.0504007786810349</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4429594316984451</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.06246364629750073</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3.600458274701053e-05</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.07658815657664132</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2247443143999646</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Rating per Item</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.07774566937044669</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.7501225544114563</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Rating</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.08152826332214137</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.28986075328068</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.08321439715573736</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.3056312538475399</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.1001162029835011</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.7877064280194028</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.1539564994308934</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.6710937073663232</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.1544950359588638</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2239610376111418</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0.07393164876537139</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3989999999999997</v>
+        <v>0.06725005067981352</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.589262756977977e-06</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,162 +476,182 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.030425744730223e-15</v>
+        <v>0.05086893337990687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001544942668675201</v>
+        <v>4.251355902150951e-06</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.336808689942018e-16</v>
+        <v>0.0255231315853942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1890317499897633</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.0006139217467348135</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.885780586188048e-16</v>
+        <v>0.02534580179451273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265772044547886</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>6.098382562343229e-07</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.729655473350135e-16</v>
+        <v>0.01754440855989154</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01529796703906005</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5599516311255306</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.324529457808922e-16</v>
+        <v>0.01455895829025606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5297412046079992</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.001314329178420079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.311519031739095e-16</v>
+        <v>0.01366948946553563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2349571414819246</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>0.001959409170317007</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.387778780781446e-16</v>
+        <v>0.01291902221982899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7422921132390718</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0.003756693141136257</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.302454639925628e-17</v>
+        <v>0.009721463404286765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.688539951327236</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.0358813410363417</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.030698080332741e-17</v>
+        <v>0.007190147567590478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9219934447459877</v>
+        <v>0.6716198018470095</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.245004513516506e-17</v>
+        <v>0.005999909636655043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7079043795270558</v>
+        <v>0.6588228368010636</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-9.107298248878237e-17</v>
+        <v>0.005417705317819972</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5975931671815276</v>
+        <v>0.8171244927706275</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -642,294 +662,142 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.179611963664229e-16</v>
+        <v>0.004107284551728107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6577170234913428</v>
+        <v>0.8321635458106913</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.370431546021678e-16</v>
+        <v>-0.001752841664740053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2965907101519935</v>
+        <v>0.898975186020025</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.996693825903617e-16</v>
+        <v>-0.005020761830838362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1353057531849219</v>
+        <v>0.768656321630261</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.532696274926138e-16</v>
+        <v>-0.009749818575569906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1893214559650412</v>
+        <v>0.6728840108676776</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.914335439641036e-16</v>
+        <v>-0.01057020155941424</v>
       </c>
       <c r="C18" t="n">
-        <v>0.443836635659738</v>
+        <v>0.6134385605640986</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5.516420653606247e-16</v>
+        <v>-0.01638111729990628</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0007459166111646344</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1538876328666683</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.724587470723463e-16</v>
+        <v>-0.01671301465943056</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00383652215906964</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1688908993168418</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-9.992007221626409e-16</v>
+        <v>-0.0223159927897469</v>
       </c>
       <c r="C21" t="n">
-        <v>3.008115804373283e-06</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2817706436396774</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.068589661201713e-15</v>
+        <v>-0.0525434599213162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1615926364878774</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.02932394811032397</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.04455555555555539</v>
+        <v>-0.3581607143362417</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.853539023523057e-34</v>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Model Name_NFCF</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.04455555555555541</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Model Name_FairGo_PMF</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.04455555555555556</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Model Name_FOCF</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.04455555555555557</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.08911111111111018</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.08911111111111097</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.08911111111111139</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.08911111111111165</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1782222222222217</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,154 +458,134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06725005067981352</v>
+        <v>53846936519.80331</v>
       </c>
       <c r="C2" t="n">
-        <v>8.589262756977977e-06</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179744508</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05086893337990687</v>
+        <v>34088278928.6789</v>
       </c>
       <c r="C3" t="n">
-        <v>4.251355902150951e-06</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179728475</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0255231315853942</v>
+        <v>34088278928.42167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006139217467348135</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179760522</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02534580179451273</v>
+        <v>22926673738.37901</v>
       </c>
       <c r="C5" t="n">
-        <v>6.098382562343229e-07</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179744065</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01754440855989154</v>
+        <v>22926673738.37782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5599516311255306</v>
+        <v>0.5096286179744279</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01455895829025606</v>
+        <v>22926673738.37313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001314329178420079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5096286179745166</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01366948946553563</v>
+        <v>0.2524861040873784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001959409170317007</v>
+        <v>4.366264937854413e-05</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01291902221982899</v>
+        <v>0.06863987480647354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003756693141136257</v>
+        <v>0.01793028941209717</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009721463404286765</v>
+        <v>0.04258484052988883</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0358813410363417</v>
+        <v>0.03333337613923343</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -616,172 +596,180 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007190147567590478</v>
+        <v>0.02588595400774488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6716198018470095</v>
+        <v>0.3224759742525082</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005999909636655043</v>
+        <v>0.01180203661851828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6588228368010636</v>
+        <v>0.3074723056794118</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005417705317819972</v>
+        <v>-0.0007357277745956362</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8171244927706275</v>
+        <v>0.9506520074884623</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004107284551728107</v>
+        <v>-0.003788026938107759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8321635458106913</v>
+        <v>0.6002340488733409</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001752841664740053</v>
+        <v>-0.01894472381988365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.898975186020025</v>
+        <v>0.3995647711398654</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005020761830838362</v>
+        <v>-0.02168641812153495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.768656321630261</v>
+        <v>0.3073934391368306</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.009749818575569906</v>
+        <v>-0.02290179493409267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6728840108676776</v>
+        <v>0.1615706364942665</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01057020155941424</v>
+        <v>-0.0280519319785997</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6134385605640986</v>
+        <v>0.2233050682256698</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01638111729990628</v>
+        <v>-0.03047600375161074</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1538876328666683</v>
+        <v>0.1768700700891662</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01671301465943056</v>
+        <v>-0.04324752510699748</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1688908993168418</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.02344577330135416</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0223159927897469</v>
+        <v>-0.05296844333103505</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2817706436396774</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>1.589629558959922e-06</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0525434599213162</v>
+        <v>-0.1031889659072419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02932394811032397</v>
+        <v>0.001713028135708866</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -792,16 +780,44 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3581607143362417</v>
+        <v>-0.3095975044952454</v>
       </c>
       <c r="C23" t="n">
-        <v>5.853539023523057e-34</v>
+        <v>3.317791375857856e-35</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-110861889186.7261</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5096286179744614</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-110861889186.7333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5096286179744334</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53846936519.80331</v>
+        <v>44614906087.66083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5096286179744508</v>
+        <v>0.5170204219611854</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34088278928.6789</v>
+        <v>27045962939.70552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5096286179728475</v>
+        <v>0.5170204219590593</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34088278928.42167</v>
+        <v>27045962939.43118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5096286179760522</v>
+        <v>0.5170204219633237</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22926673738.37901</v>
+        <v>18135639251.51714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5096286179744065</v>
+        <v>0.517020421961138</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22926673738.37782</v>
+        <v>18135639251.51597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5096286179744279</v>
+        <v>0.5170204219611648</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22926673738.37313</v>
+        <v>18135639251.51142</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5096286179745166</v>
+        <v>0.517020421961272</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2524861040873784</v>
+        <v>0.250200126264003</v>
       </c>
       <c r="C8" t="n">
-        <v>4.366264937854413e-05</v>
+        <v>5.254208400387762e-05</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -564,260 +564,250 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06863987480647354</v>
+        <v>0.08754466746202005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01793028941209717</v>
+        <v>0.001570312817251052</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04258484052988883</v>
+        <v>0.0471443433343321</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03333337613923343</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.05175901132962343</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02588595400774488</v>
+        <v>0.01794792370698626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3224759742525082</v>
+        <v>0.1094156355821101</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01180203661851828</v>
+        <v>0.002556938900123715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3074723056794118</v>
+        <v>0.8868319996732572</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0007357277745956362</v>
+        <v>-0.004382437310932673</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9506520074884623</v>
+        <v>0.5449528104382346</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003788026938107759</v>
+        <v>-0.01091766037303271</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6002340488733409</v>
+        <v>0.3170934622627286</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01894472381988365</v>
+        <v>-0.01597581784219029</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3995647711398654</v>
+        <v>0.3198087557738531</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02168641812153495</v>
+        <v>-0.02587744321369403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3073934391368306</v>
+        <v>0.2616031049479344</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02290179493409267</v>
+        <v>-0.04230247158110299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1615706364942665</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.03173641819717728</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0280519319785997</v>
+        <v>-0.05157000771168506</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2233050682256698</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>0.005887034441322059</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03047600375161074</v>
+        <v>-0.05696940037691417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1768700700891662</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>1.7583991295098e-07</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04324752510699748</v>
+        <v>-0.06424997021431578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02344577330135416</v>
+        <v>6.811121477439411e-05</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05296844333103505</v>
+        <v>-0.0951632651057186</v>
       </c>
       <c r="C21" t="n">
-        <v>1.589629558959922e-06</v>
+        <v>0.003645035432281534</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1031889659072419</v>
+        <v>-0.3092575461653046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001713028135708866</v>
+        <v>5.023110381620716e-35</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.3095975044952454</v>
+        <v>-89796508278.72891</v>
       </c>
       <c r="C23" t="n">
-        <v>3.317791375857856e-35</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5170204219612513</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-110861889186.7261</v>
+        <v>-89796508278.73657</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5096286179744614</v>
+        <v>0.5170204219612151</v>
       </c>
       <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-110861889186.7333</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5096286179744334</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Generalized_Cross_Entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,16 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44614906087.66083</v>
+        <v>0.2360528449829241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5170204219611854</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.02415188245974485</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,338 +480,280 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27045962939.70552</v>
+        <v>0.1329831723817231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5170204219590593</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.00438259541236635</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27045962939.43118</v>
+        <v>0.08336578853006907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5170204219633237</v>
+        <v>0.07478194442257743</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18135639251.51714</v>
+        <v>0.0463738559195384</v>
       </c>
       <c r="C5" t="n">
-        <v>0.517020421961138</v>
+        <v>0.2555849902778649</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18135639251.51597</v>
+        <v>0.0151349800269134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5170204219611648</v>
+        <v>0.4201411027700777</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18135639251.51142</v>
+        <v>0.01274445868200105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517020421961272</v>
+        <v>0.7093791665272037</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.250200126264003</v>
+        <v>0.008165155773005653</v>
       </c>
       <c r="C8" t="n">
-        <v>5.254208400387762e-05</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6305090640740842</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08754466746202005</v>
+        <v>0.004579302908996698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001570312817251052</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8034714322620029</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0471443433343321</v>
+        <v>-0.0009113497745449461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05175901132962343</v>
+        <v>0.9760758973257406</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01794792370698626</v>
+        <v>-0.005192426630962078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1094156355821101</v>
+        <v>0.4967034760916094</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002556938900123715</v>
+        <v>-0.01068228251591537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8868319996732572</v>
+        <v>0.5628447091979043</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.004382437310932673</v>
+        <v>-0.01847222354653513</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5449528104382346</v>
+        <v>0.495926990296735</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01091766037303271</v>
+        <v>-0.03488645650933091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3170934622627286</v>
+        <v>0.3752264048132876</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01597581784219029</v>
+        <v>-0.03937107328666113</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3198087557738531</v>
+        <v>0.23709638133572</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02587744321369403</v>
+        <v>-0.04554591179601011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2616031049479344</v>
+        <v>0.1487926932791002</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04230247158110299</v>
+        <v>-0.05249263412860186</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03173641819717728</v>
+        <v>0.004457213217096669</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05157000771168506</v>
+        <v>-0.06046848205830307</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005887034441322059</v>
+        <v>0.02662119664283453</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05696940037691417</v>
+        <v>-0.09482000900521763</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7583991295098e-07</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.08705961616525311</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06424997021431578</v>
+        <v>-0.1202387136997213</v>
       </c>
       <c r="C20" t="n">
-        <v>6.811121477439411e-05</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.07106346003001217</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0951632651057186</v>
+        <v>-0.3161887903886004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003645035432281534</v>
+        <v>1.140372843993806e-13</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.3092575461653046</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.023110381620716e-35</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-89796508278.72891</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5170204219612513</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-89796508278.73657</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5170204219612151</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
